--- a/core/utils/distgradeunificadaBC.xlsx
+++ b/core/utils/distgradeunificadaBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458B9DEE-8AA0-47DB-81D7-720FB831D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C35D5-C96C-48AD-9B8A-BADAB7BE88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1040,8 +1040,8 @@
   <dimension ref="A1:W176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O165" sqref="O165"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y140" sqref="Y140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,12 +1962,8 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="24">
-        <v>5</v>
-      </c>
-      <c r="L24" s="24">
-        <v>2</v>
-      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -3582,12 +3578,8 @@
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
-      <c r="K68" s="24">
-        <v>3</v>
-      </c>
-      <c r="L68" s="24">
-        <v>1</v>
-      </c>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="24"/>
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
@@ -5202,12 +5194,8 @@
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
-      <c r="K112" s="24">
-        <v>2</v>
-      </c>
-      <c r="L112" s="24">
-        <v>1</v>
-      </c>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
       <c r="M112" s="24"/>
       <c r="N112" s="7"/>
       <c r="O112" s="7"/>
@@ -6822,12 +6810,8 @@
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
-      <c r="K156" s="24">
-        <v>5</v>
-      </c>
-      <c r="L156" s="24">
-        <v>2</v>
-      </c>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
       <c r="M156" s="24"/>
       <c r="N156" s="7"/>
       <c r="O156" s="7"/>

--- a/core/utils/distgradeunificadaBC.xlsx
+++ b/core/utils/distgradeunificadaBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C35D5-C96C-48AD-9B8A-BADAB7BE88CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5F4C2-5CE7-46EF-A870-EEEE1A9E35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1040,8 +1040,8 @@
   <dimension ref="A1:W176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y140" sqref="Y140"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y168" sqref="Y168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaBC.xlsx
+++ b/core/utils/distgradeunificadaBC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5F4C2-5CE7-46EF-A870-EEEE1A9E35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC71B-D9FF-442B-80BF-1675F0073840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1039,15 +1039,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
   <dimension ref="A1:W176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y168" sqref="Y168"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>

--- a/core/utils/distgradeunificadaBC.xlsx
+++ b/core/utils/distgradeunificadaBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FC71B-D9FF-442B-80BF-1675F0073840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68AAD-49D3-4817-8A7E-C403ED73743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="154">
   <si>
     <t>PROJETO</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>NEI - MEU PRIMEIRO PASSO</t>
+  </si>
+  <si>
+    <t>Almoxarifado</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>RM 44</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +731,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,11 +1047,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:W176"/>
+  <dimension ref="A1:W180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,76 +2727,76 @@
       <c r="W44" s="7"/>
     </row>
     <row r="45" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
+      <c r="A45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
     </row>
     <row r="47" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>98</v>
@@ -2795,7 +2805,7 @@
         <v>104</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -2820,10 +2830,10 @@
         <v>99</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>98</v>
@@ -2832,7 +2842,7 @@
         <v>104</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -2857,10 +2867,10 @@
         <v>99</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>98</v>
@@ -2869,7 +2879,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -2894,10 +2904,10 @@
         <v>99</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>98</v>
@@ -2906,7 +2916,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -2931,10 +2941,10 @@
         <v>99</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>98</v>
@@ -2943,7 +2953,7 @@
         <v>104</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
@@ -2968,10 +2978,10 @@
         <v>99</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>98</v>
@@ -2980,14 +2990,14 @@
         <v>104</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -3005,10 +3015,10 @@
         <v>99</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>98</v>
@@ -3017,7 +3027,7 @@
         <v>104</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -3042,10 +3052,10 @@
         <v>99</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>98</v>
@@ -3054,7 +3064,7 @@
         <v>104</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
@@ -3062,7 +3072,7 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
+      <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -3079,10 +3089,10 @@
         <v>99</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>98</v>
@@ -3091,7 +3101,7 @@
         <v>104</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -3116,10 +3126,10 @@
         <v>99</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>98</v>
@@ -3128,7 +3138,7 @@
         <v>104</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -3153,10 +3163,10 @@
         <v>99</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>98</v>
@@ -3165,7 +3175,7 @@
         <v>104</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -3190,10 +3200,10 @@
         <v>99</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>98</v>
@@ -3202,7 +3212,7 @@
         <v>104</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -3227,10 +3237,10 @@
         <v>99</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>98</v>
@@ -3239,7 +3249,7 @@
         <v>104</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -3264,10 +3274,10 @@
         <v>99</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>98</v>
@@ -3276,7 +3286,7 @@
         <v>104</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -3301,10 +3311,10 @@
         <v>99</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>98</v>
@@ -3313,7 +3323,7 @@
         <v>104</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -3338,10 +3348,10 @@
         <v>99</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>98</v>
@@ -3350,7 +3360,7 @@
         <v>104</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -3375,10 +3385,10 @@
         <v>99</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>98</v>
@@ -3387,7 +3397,7 @@
         <v>104</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -3412,10 +3422,10 @@
         <v>99</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>98</v>
@@ -3424,7 +3434,7 @@
         <v>104</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -3449,10 +3459,10 @@
         <v>99</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>98</v>
@@ -3461,15 +3471,15 @@
         <v>104</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7"/>
       <c r="P65" s="7"/>
@@ -3486,10 +3496,10 @@
         <v>99</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>98</v>
@@ -3498,7 +3508,7 @@
         <v>104</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -3523,10 +3533,10 @@
         <v>99</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>98</v>
@@ -3535,7 +3545,7 @@
         <v>104</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -3560,10 +3570,10 @@
         <v>99</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>98</v>
@@ -3572,7 +3582,7 @@
         <v>104</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -3597,10 +3607,10 @@
         <v>99</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>98</v>
@@ -3609,12 +3619,12 @@
         <v>104</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="24"/>
       <c r="L69" s="24"/>
       <c r="M69" s="24"/>
@@ -3634,10 +3644,10 @@
         <v>99</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>98</v>
@@ -3646,12 +3656,12 @@
         <v>104</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="J70" s="24"/>
       <c r="K70" s="24"/>
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
@@ -3671,10 +3681,10 @@
         <v>99</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>98</v>
@@ -3683,7 +3693,7 @@
         <v>104</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -3708,10 +3718,10 @@
         <v>99</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>98</v>
@@ -3720,13 +3730,13 @@
         <v>104</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="K72" s="24"/>
       <c r="L72" s="24"/>
       <c r="M72" s="24"/>
       <c r="N72" s="7"/>
@@ -3745,10 +3755,10 @@
         <v>99</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>98</v>
@@ -3757,19 +3767,19 @@
         <v>104</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -3782,10 +3792,10 @@
         <v>99</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>98</v>
@@ -3794,7 +3804,7 @@
         <v>104</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -3807,8 +3817,8 @@
       <c r="O74" s="25"/>
       <c r="P74" s="25"/>
       <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
@@ -3819,10 +3829,10 @@
         <v>99</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>98</v>
@@ -3831,7 +3841,7 @@
         <v>104</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -3856,10 +3866,10 @@
         <v>99</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>98</v>
@@ -3868,7 +3878,7 @@
         <v>104</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -3893,10 +3903,10 @@
         <v>99</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>98</v>
@@ -3905,7 +3915,7 @@
         <v>104</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -3917,9 +3927,9 @@
       <c r="N77" s="25"/>
       <c r="O77" s="25"/>
       <c r="P77" s="25"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -3930,10 +3940,10 @@
         <v>99</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>98</v>
@@ -3942,7 +3952,7 @@
         <v>104</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -3954,7 +3964,7 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
+      <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
@@ -3967,10 +3977,10 @@
         <v>99</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>98</v>
@@ -3979,7 +3989,7 @@
         <v>104</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -3992,10 +4002,10 @@
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
       <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="25"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
     </row>
@@ -4004,10 +4014,10 @@
         <v>99</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>98</v>
@@ -4016,7 +4026,7 @@
         <v>104</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
@@ -4031,8 +4041,8 @@
       <c r="Q80" s="25"/>
       <c r="R80" s="25"/>
       <c r="S80" s="25"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
     </row>
@@ -4041,10 +4051,10 @@
         <v>99</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>98</v>
@@ -4053,7 +4063,7 @@
         <v>104</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -4078,10 +4088,10 @@
         <v>99</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>98</v>
@@ -4090,7 +4100,7 @@
         <v>104</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -4115,10 +4125,10 @@
         <v>99</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>98</v>
@@ -4127,7 +4137,7 @@
         <v>104</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -4152,10 +4162,10 @@
         <v>99</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>98</v>
@@ -4164,7 +4174,7 @@
         <v>104</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -4189,10 +4199,10 @@
         <v>99</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>98</v>
@@ -4201,7 +4211,7 @@
         <v>104</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
@@ -4226,10 +4236,10 @@
         <v>99</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>98</v>
@@ -4238,7 +4248,7 @@
         <v>104</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
@@ -4263,10 +4273,10 @@
         <v>99</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>98</v>
@@ -4275,7 +4285,7 @@
         <v>104</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
@@ -4300,10 +4310,10 @@
         <v>99</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>98</v>
@@ -4312,7 +4322,7 @@
         <v>104</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
@@ -4333,113 +4343,113 @@
       <c r="W88" s="7"/>
     </row>
     <row r="89" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A89" s="8"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
+      <c r="A89" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
     </row>
     <row r="90" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>105</v>
+      <c r="A90" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
     </row>
     <row r="91" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="25"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
     </row>
     <row r="92" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>106</v>
@@ -4448,7 +4458,7 @@
         <v>105</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
@@ -4473,10 +4483,10 @@
         <v>99</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>106</v>
@@ -4485,7 +4495,7 @@
         <v>105</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
@@ -4510,10 +4520,10 @@
         <v>99</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>106</v>
@@ -4522,7 +4532,7 @@
         <v>105</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
@@ -4547,10 +4557,10 @@
         <v>99</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>106</v>
@@ -4559,7 +4569,7 @@
         <v>105</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
@@ -4584,10 +4594,10 @@
         <v>99</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>106</v>
@@ -4596,14 +4606,14 @@
         <v>105</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
       <c r="M96" s="7"/>
       <c r="N96" s="7"/>
       <c r="O96" s="7"/>
@@ -4621,10 +4631,10 @@
         <v>99</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>106</v>
@@ -4633,14 +4643,14 @@
         <v>105</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="7"/>
@@ -4658,10 +4668,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>106</v>
@@ -4670,7 +4680,7 @@
         <v>105</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
@@ -4678,7 +4688,7 @@
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
       <c r="L98" s="25"/>
-      <c r="M98" s="25"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="7"/>
       <c r="O98" s="7"/>
       <c r="P98" s="7"/>
@@ -4695,10 +4705,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>106</v>
@@ -4707,7 +4717,7 @@
         <v>105</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
@@ -4715,7 +4725,7 @@
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
       <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
+      <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="7"/>
       <c r="P99" s="7"/>
@@ -4732,10 +4742,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>106</v>
@@ -4744,7 +4754,7 @@
         <v>105</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
@@ -4769,10 +4779,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>106</v>
@@ -4781,7 +4791,7 @@
         <v>105</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
@@ -4806,10 +4816,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>106</v>
@@ -4818,7 +4828,7 @@
         <v>105</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
@@ -4843,10 +4853,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>106</v>
@@ -4855,7 +4865,7 @@
         <v>105</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -4880,10 +4890,10 @@
         <v>99</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>106</v>
@@ -4892,7 +4902,7 @@
         <v>105</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
@@ -4917,10 +4927,10 @@
         <v>99</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>106</v>
@@ -4929,7 +4939,7 @@
         <v>105</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
@@ -4954,10 +4964,10 @@
         <v>99</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>106</v>
@@ -4966,7 +4976,7 @@
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
@@ -4991,10 +5001,10 @@
         <v>99</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>106</v>
@@ -5003,7 +5013,7 @@
         <v>105</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
@@ -5028,10 +5038,10 @@
         <v>99</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>106</v>
@@ -5040,7 +5050,7 @@
         <v>105</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
@@ -5065,10 +5075,10 @@
         <v>99</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>106</v>
@@ -5077,15 +5087,15 @@
         <v>105</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
-      <c r="K109" s="24"/>
-      <c r="L109" s="24"/>
-      <c r="M109" s="24"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
       <c r="N109" s="7"/>
       <c r="O109" s="7"/>
       <c r="P109" s="7"/>
@@ -5102,10 +5112,10 @@
         <v>99</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>106</v>
@@ -5114,15 +5124,15 @@
         <v>105</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
-      <c r="K110" s="24"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="24"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
       <c r="P110" s="7"/>
@@ -5139,10 +5149,10 @@
         <v>99</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>106</v>
@@ -5151,7 +5161,7 @@
         <v>105</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
@@ -5176,10 +5186,10 @@
         <v>99</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>106</v>
@@ -5188,7 +5198,7 @@
         <v>105</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
@@ -5213,10 +5223,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>106</v>
@@ -5225,12 +5235,12 @@
         <v>105</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="24"/>
+      <c r="J113" s="25"/>
       <c r="K113" s="24"/>
       <c r="L113" s="24"/>
       <c r="M113" s="24"/>
@@ -5250,10 +5260,10 @@
         <v>99</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>106</v>
@@ -5262,7 +5272,7 @@
         <v>105</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
@@ -5287,10 +5297,10 @@
         <v>99</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>106</v>
@@ -5299,12 +5309,12 @@
         <v>105</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
+      <c r="J115" s="24"/>
       <c r="K115" s="24"/>
       <c r="L115" s="24"/>
       <c r="M115" s="24"/>
@@ -5324,10 +5334,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>106</v>
@@ -5336,13 +5346,13 @@
         <v>105</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
+      <c r="K116" s="24"/>
       <c r="L116" s="24"/>
       <c r="M116" s="24"/>
       <c r="N116" s="7"/>
@@ -5361,10 +5371,10 @@
         <v>99</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>106</v>
@@ -5373,21 +5383,21 @@
         <v>105</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25"/>
-      <c r="O117" s="25"/>
-      <c r="P117" s="25"/>
-      <c r="Q117" s="25"/>
-      <c r="R117" s="25"/>
-      <c r="S117" s="25"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
@@ -5398,10 +5408,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>106</v>
@@ -5410,21 +5420,21 @@
         <v>105</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="25"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="25"/>
-      <c r="S118" s="25"/>
+      <c r="L118" s="24"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
       <c r="V118" s="7"/>
@@ -5435,10 +5445,10 @@
         <v>99</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>106</v>
@@ -5447,7 +5457,7 @@
         <v>105</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
@@ -5472,10 +5482,10 @@
         <v>99</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>106</v>
@@ -5484,7 +5494,7 @@
         <v>105</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
@@ -5509,10 +5519,10 @@
         <v>99</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>106</v>
@@ -5521,7 +5531,7 @@
         <v>105</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
@@ -5533,9 +5543,9 @@
       <c r="N121" s="25"/>
       <c r="O121" s="25"/>
       <c r="P121" s="25"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
+      <c r="Q121" s="25"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
@@ -5546,10 +5556,10 @@
         <v>99</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>106</v>
@@ -5558,7 +5568,7 @@
         <v>105</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
@@ -5583,10 +5593,10 @@
         <v>99</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>106</v>
@@ -5595,7 +5605,7 @@
         <v>105</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
@@ -5607,11 +5617,11 @@
       <c r="N123" s="25"/>
       <c r="O123" s="25"/>
       <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="25"/>
-      <c r="S123" s="25"/>
-      <c r="T123" s="25"/>
-      <c r="U123" s="25"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7"/>
       <c r="V123" s="7"/>
       <c r="W123" s="7"/>
     </row>
@@ -5620,10 +5630,10 @@
         <v>99</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>106</v>
@@ -5632,7 +5642,7 @@
         <v>105</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
@@ -5657,10 +5667,10 @@
         <v>99</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>106</v>
@@ -5669,7 +5679,7 @@
         <v>105</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
@@ -5684,8 +5694,8 @@
       <c r="Q125" s="25"/>
       <c r="R125" s="25"/>
       <c r="S125" s="25"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
     </row>
@@ -5694,10 +5704,10 @@
         <v>99</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>106</v>
@@ -5706,7 +5716,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
@@ -5731,10 +5741,10 @@
         <v>99</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>106</v>
@@ -5743,7 +5753,7 @@
         <v>105</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
@@ -5768,10 +5778,10 @@
         <v>99</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>106</v>
@@ -5780,7 +5790,7 @@
         <v>105</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
@@ -5805,10 +5815,10 @@
         <v>99</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>106</v>
@@ -5817,7 +5827,7 @@
         <v>105</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
@@ -5842,10 +5852,10 @@
         <v>99</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>106</v>
@@ -5854,7 +5864,7 @@
         <v>105</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
@@ -5879,10 +5889,10 @@
         <v>99</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>106</v>
@@ -5891,7 +5901,7 @@
         <v>105</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
@@ -5916,10 +5926,10 @@
         <v>99</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>106</v>
@@ -5928,7 +5938,7 @@
         <v>105</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
@@ -5948,151 +5958,151 @@
       <c r="V132" s="7"/>
       <c r="W132" s="7"/>
     </row>
-    <row r="133" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="8"/>
-      <c r="B133" s="21"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="8"/>
-      <c r="S133" s="8"/>
-      <c r="T133" s="8"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="8"/>
+    <row r="133" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
     </row>
     <row r="134" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>30</v>
+      <c r="A134" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
       <c r="V134" s="7"/>
       <c r="W134" s="7"/>
     </row>
     <row r="135" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A135" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>30</v>
+      <c r="A135" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
       <c r="W135" s="7"/>
     </row>
-    <row r="136" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A136" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7"/>
-      <c r="T136" s="7"/>
-      <c r="U136" s="7"/>
-      <c r="V136" s="7"/>
-      <c r="W136" s="7"/>
+    <row r="136" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="8"/>
+      <c r="S136" s="8"/>
+      <c r="T136" s="8"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
     </row>
     <row r="137" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A137" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>107</v>
@@ -6101,7 +6111,7 @@
         <v>30</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
@@ -6126,10 +6136,10 @@
         <v>99</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D138" s="16" t="s">
         <v>107</v>
@@ -6138,7 +6148,7 @@
         <v>30</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
@@ -6163,10 +6173,10 @@
         <v>99</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>107</v>
@@ -6175,7 +6185,7 @@
         <v>30</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
@@ -6200,10 +6210,10 @@
         <v>99</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>107</v>
@@ -6212,14 +6222,14 @@
         <v>30</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="7"/>
@@ -6237,10 +6247,10 @@
         <v>99</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>107</v>
@@ -6249,14 +6259,14 @@
         <v>30</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
+      <c r="K141" s="7"/>
+      <c r="L141" s="7"/>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
       <c r="O141" s="7"/>
@@ -6274,10 +6284,10 @@
         <v>99</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>107</v>
@@ -6286,15 +6296,15 @@
         <v>30</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
       <c r="N142" s="7"/>
       <c r="O142" s="7"/>
       <c r="P142" s="7"/>
@@ -6311,10 +6321,10 @@
         <v>99</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>107</v>
@@ -6323,7 +6333,7 @@
         <v>30</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
@@ -6331,7 +6341,7 @@
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
       <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
+      <c r="M143" s="7"/>
       <c r="N143" s="7"/>
       <c r="O143" s="7"/>
       <c r="P143" s="7"/>
@@ -6348,10 +6358,10 @@
         <v>99</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>107</v>
@@ -6360,7 +6370,7 @@
         <v>30</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
@@ -6368,7 +6378,7 @@
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
       <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
+      <c r="M144" s="7"/>
       <c r="N144" s="7"/>
       <c r="O144" s="7"/>
       <c r="P144" s="7"/>
@@ -6385,10 +6395,10 @@
         <v>99</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>107</v>
@@ -6397,7 +6407,7 @@
         <v>30</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -6422,10 +6432,10 @@
         <v>99</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>107</v>
@@ -6434,7 +6444,7 @@
         <v>30</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
@@ -6459,10 +6469,10 @@
         <v>99</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>107</v>
@@ -6471,7 +6481,7 @@
         <v>30</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
@@ -6496,10 +6506,10 @@
         <v>99</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>107</v>
@@ -6508,7 +6518,7 @@
         <v>30</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
@@ -6533,10 +6543,10 @@
         <v>99</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>107</v>
@@ -6545,7 +6555,7 @@
         <v>30</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
@@ -6570,10 +6580,10 @@
         <v>99</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>107</v>
@@ -6582,7 +6592,7 @@
         <v>30</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
@@ -6607,10 +6617,10 @@
         <v>99</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D151" s="16" t="s">
         <v>107</v>
@@ -6619,7 +6629,7 @@
         <v>30</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
@@ -6644,10 +6654,10 @@
         <v>99</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D152" s="16" t="s">
         <v>107</v>
@@ -6656,7 +6666,7 @@
         <v>30</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
@@ -6681,10 +6691,10 @@
         <v>99</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>107</v>
@@ -6693,15 +6703,15 @@
         <v>30</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
-      <c r="K153" s="24"/>
-      <c r="L153" s="24"/>
-      <c r="M153" s="24"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
       <c r="N153" s="7"/>
       <c r="O153" s="7"/>
       <c r="P153" s="7"/>
@@ -6718,10 +6728,10 @@
         <v>99</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>107</v>
@@ -6730,15 +6740,15 @@
         <v>30</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="24"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
       <c r="N154" s="7"/>
       <c r="O154" s="7"/>
       <c r="P154" s="7"/>
@@ -6755,10 +6765,10 @@
         <v>99</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>107</v>
@@ -6767,15 +6777,15 @@
         <v>30</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="24"/>
-      <c r="M155" s="24"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
       <c r="N155" s="7"/>
       <c r="O155" s="7"/>
       <c r="P155" s="7"/>
@@ -6792,10 +6802,10 @@
         <v>99</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>107</v>
@@ -6804,7 +6814,7 @@
         <v>30</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
@@ -6829,10 +6839,10 @@
         <v>99</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>107</v>
@@ -6841,12 +6851,12 @@
         <v>30</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="24"/>
+      <c r="J157" s="25"/>
       <c r="K157" s="24"/>
       <c r="L157" s="24"/>
       <c r="M157" s="24"/>
@@ -6866,10 +6876,10 @@
         <v>99</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>107</v>
@@ -6878,7 +6888,7 @@
         <v>30</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
@@ -6903,10 +6913,10 @@
         <v>99</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>107</v>
@@ -6915,7 +6925,7 @@
         <v>30</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
@@ -6940,10 +6950,10 @@
         <v>99</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>107</v>
@@ -6952,13 +6962,13 @@
         <v>30</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
       <c r="L160" s="24"/>
       <c r="M160" s="24"/>
       <c r="N160" s="7"/>
@@ -6977,10 +6987,10 @@
         <v>99</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>107</v>
@@ -6989,21 +6999,21 @@
         <v>30</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="25"/>
-      <c r="O161" s="25"/>
-      <c r="P161" s="25"/>
-      <c r="Q161" s="25"/>
-      <c r="R161" s="25"/>
-      <c r="S161" s="25"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
@@ -7014,10 +7024,10 @@
         <v>99</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>107</v>
@@ -7026,21 +7036,21 @@
         <v>30</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="25"/>
-      <c r="O162" s="25"/>
-      <c r="P162" s="25"/>
-      <c r="Q162" s="25"/>
-      <c r="R162" s="25"/>
-      <c r="S162" s="25"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7"/>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
@@ -7051,10 +7061,10 @@
         <v>99</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>107</v>
@@ -7063,21 +7073,21 @@
         <v>30</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
-      <c r="L163" s="25"/>
-      <c r="M163" s="25"/>
-      <c r="N163" s="25"/>
-      <c r="O163" s="25"/>
-      <c r="P163" s="25"/>
-      <c r="Q163" s="25"/>
-      <c r="R163" s="25"/>
-      <c r="S163" s="25"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="7"/>
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
       <c r="V163" s="7"/>
@@ -7088,10 +7098,10 @@
         <v>99</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>107</v>
@@ -7100,7 +7110,7 @@
         <v>30</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
@@ -7125,10 +7135,10 @@
         <v>99</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>107</v>
@@ -7137,7 +7147,7 @@
         <v>30</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
@@ -7149,9 +7159,9 @@
       <c r="N165" s="25"/>
       <c r="O165" s="25"/>
       <c r="P165" s="25"/>
-      <c r="Q165" s="7"/>
-      <c r="R165" s="7"/>
-      <c r="S165" s="7"/>
+      <c r="Q165" s="25"/>
+      <c r="R165" s="25"/>
+      <c r="S165" s="25"/>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
@@ -7162,10 +7172,10 @@
         <v>99</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>107</v>
@@ -7174,7 +7184,7 @@
         <v>30</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
@@ -7199,10 +7209,10 @@
         <v>99</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>107</v>
@@ -7211,7 +7221,7 @@
         <v>30</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
@@ -7226,8 +7236,8 @@
       <c r="Q167" s="25"/>
       <c r="R167" s="25"/>
       <c r="S167" s="25"/>
-      <c r="T167" s="25"/>
-      <c r="U167" s="25"/>
+      <c r="T167" s="7"/>
+      <c r="U167" s="7"/>
       <c r="V167" s="7"/>
       <c r="W167" s="7"/>
     </row>
@@ -7236,10 +7246,10 @@
         <v>99</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>107</v>
@@ -7248,7 +7258,7 @@
         <v>30</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
@@ -7260,9 +7270,9 @@
       <c r="N168" s="25"/>
       <c r="O168" s="25"/>
       <c r="P168" s="25"/>
-      <c r="Q168" s="25"/>
-      <c r="R168" s="25"/>
-      <c r="S168" s="25"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
       <c r="T168" s="7"/>
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
@@ -7273,10 +7283,10 @@
         <v>99</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>107</v>
@@ -7285,7 +7295,7 @@
         <v>30</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
@@ -7310,10 +7320,10 @@
         <v>99</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>107</v>
@@ -7322,7 +7332,7 @@
         <v>30</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
@@ -7337,8 +7347,8 @@
       <c r="Q170" s="25"/>
       <c r="R170" s="25"/>
       <c r="S170" s="25"/>
-      <c r="T170" s="7"/>
-      <c r="U170" s="7"/>
+      <c r="T170" s="25"/>
+      <c r="U170" s="25"/>
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
     </row>
@@ -7347,10 +7357,10 @@
         <v>99</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>107</v>
@@ -7359,7 +7369,7 @@
         <v>30</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
@@ -7384,10 +7394,10 @@
         <v>99</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>107</v>
@@ -7396,7 +7406,7 @@
         <v>30</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
@@ -7421,10 +7431,10 @@
         <v>99</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>107</v>
@@ -7433,7 +7443,7 @@
         <v>30</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
@@ -7458,10 +7468,10 @@
         <v>99</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>107</v>
@@ -7470,7 +7480,7 @@
         <v>30</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
@@ -7495,10 +7505,10 @@
         <v>99</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>107</v>
@@ -7507,7 +7517,7 @@
         <v>30</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
@@ -7532,10 +7542,10 @@
         <v>99</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>107</v>
@@ -7544,7 +7554,7 @@
         <v>30</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
@@ -7564,6 +7574,154 @@
       <c r="V176" s="7"/>
       <c r="W176" s="7"/>
     </row>
+    <row r="177" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A177" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="25"/>
+      <c r="M177" s="25"/>
+      <c r="N177" s="25"/>
+      <c r="O177" s="25"/>
+      <c r="P177" s="25"/>
+      <c r="Q177" s="25"/>
+      <c r="R177" s="25"/>
+      <c r="S177" s="25"/>
+      <c r="T177" s="7"/>
+      <c r="U177" s="7"/>
+      <c r="V177" s="7"/>
+      <c r="W177" s="7"/>
+    </row>
+    <row r="178" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A178" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="25"/>
+      <c r="M178" s="25"/>
+      <c r="N178" s="25"/>
+      <c r="O178" s="25"/>
+      <c r="P178" s="25"/>
+      <c r="Q178" s="25"/>
+      <c r="R178" s="25"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="7"/>
+      <c r="U178" s="7"/>
+      <c r="V178" s="7"/>
+      <c r="W178" s="7"/>
+    </row>
+    <row r="179" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A179" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C179" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
+      <c r="M179" s="25"/>
+      <c r="N179" s="25"/>
+      <c r="O179" s="25"/>
+      <c r="P179" s="25"/>
+      <c r="Q179" s="25"/>
+      <c r="R179" s="25"/>
+      <c r="S179" s="25"/>
+      <c r="T179" s="7"/>
+      <c r="U179" s="7"/>
+      <c r="V179" s="7"/>
+      <c r="W179" s="7"/>
+    </row>
+    <row r="180" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A180" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F180" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="25"/>
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
+      <c r="N180" s="25"/>
+      <c r="O180" s="25"/>
+      <c r="P180" s="25"/>
+      <c r="Q180" s="25"/>
+      <c r="R180" s="25"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="7"/>
+      <c r="U180" s="7"/>
+      <c r="V180" s="7"/>
+      <c r="W180" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaBC.xlsx
+++ b/core/utils/distgradeunificadaBC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C68AAD-49D3-4817-8A7E-C403ED73743B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE3D18-F62C-4495-B0B6-BB3789E7041D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -480,13 +480,13 @@
     <t>NEI - MEU PRIMEIRO PASSO</t>
   </si>
   <si>
-    <t>Almoxarifado</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
     <t>RM 44</t>
+  </si>
+  <si>
+    <t>sme - Almoxarifado</t>
   </si>
 </sst>
 </file>
@@ -2731,10 +2731,10 @@
         <v>99</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>103</v>
@@ -2743,7 +2743,7 @@
         <v>30</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -4384,10 +4384,10 @@
         <v>99</v>
       </c>
       <c r="B90" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>98</v>
@@ -4396,7 +4396,7 @@
         <v>104</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
@@ -6037,10 +6037,10 @@
         <v>99</v>
       </c>
       <c r="B135" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>106</v>
@@ -6049,7 +6049,7 @@
         <v>105</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
@@ -7690,10 +7690,10 @@
         <v>99</v>
       </c>
       <c r="B180" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C180" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="C180" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>107</v>
@@ -7702,7 +7702,7 @@
         <v>30</v>
       </c>
       <c r="F180" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
